--- a/sample_data/depth_sample.xlsx
+++ b/sample_data/depth_sample.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353776F0-A31D-4506-86FD-3FB34A7ABD85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAA8AFB-C8DF-4BC3-81E9-840D4FFD1EE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="POTTIDBA_HOLE_SURVEY" sheetId="1" r:id="rId1"/>
+    <sheet name="tab1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -463,7 +463,7 @@
   <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
